--- a/RETIRED/VIDA, FRANZ.xlsx
+++ b/RETIRED/VIDA, FRANZ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\RETIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE7658-8529-44C6-B391-5CCCCB4D2DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -187,9 +186,6 @@
     <t>FL(5-0-0)</t>
   </si>
   <si>
-    <t>VIDA, FRANZ</t>
-  </si>
-  <si>
     <t>SL(2-0-0)</t>
   </si>
   <si>
@@ -226,11 +222,23 @@
       <t>JULY 01, 2022</t>
     </r>
   </si>
+  <si>
+    <t>5 - Single (including living common law)</t>
+  </si>
+  <si>
+    <t>CASUAL EMPLOYEE</t>
+  </si>
+  <si>
+    <t>SP/VMO</t>
+  </si>
+  <si>
+    <t>VIDA, FRANZ R.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -469,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,15 +637,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -650,17 +649,32 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,7 +1365,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1408,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1472,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1532,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1598,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1661,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1759,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1818,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1883,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1926,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +2001,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2187,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2253,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2311,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2377,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2433,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2508,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2551,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2617,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2673,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2771,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2834,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,25 +2900,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K90" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2916,25 +2930,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2946,13 +2960,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2961,14 +2975,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3272,7 +3286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3282,7 +3296,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3290,75 +3304,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <pane ySplit="4425" topLeftCell="A28" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="54" t="s">
+        <v>58</v>
+      </c>
       <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="58">
         <v>43054</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3369,16 +3387,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="59"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3386,7 +3406,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3399,24 +3419,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3451,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3475,7 +3495,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3497,7 +3517,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3517,7 +3537,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3537,7 +3557,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3557,7 +3577,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3577,7 +3597,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3597,7 +3617,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3617,7 +3637,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3637,7 +3657,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3657,7 +3677,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3677,7 +3697,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3697,7 +3717,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3717,7 +3737,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3741,7 +3761,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3759,7 +3779,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3779,7 +3799,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3799,7 +3819,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3819,7 +3839,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3839,7 +3859,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3859,7 +3879,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3879,7 +3899,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3899,7 +3919,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3919,7 +3939,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3939,7 +3959,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3959,7 +3979,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3979,7 +3999,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4003,7 +4023,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4021,7 +4041,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4041,12 +4061,12 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="13">
         <v>1.25</v>
@@ -4064,13 +4084,13 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -4084,10 +4104,10 @@
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
       <c r="K39" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -4107,7 +4127,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -4127,7 +4147,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -4147,7 +4167,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -4167,7 +4187,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -4187,7 +4207,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -4207,7 +4227,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -4227,7 +4247,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4247,7 +4267,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4267,7 +4287,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4291,7 +4311,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>45</v>
       </c>
@@ -4309,7 +4329,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4329,7 +4349,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4349,7 +4369,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4369,7 +4389,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4389,7 +4409,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4409,7 +4429,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4429,7 +4449,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4449,7 +4469,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4469,7 +4489,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4489,7 +4509,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4509,7 +4529,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4529,7 +4549,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4553,7 +4573,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>46</v>
       </c>
@@ -4571,7 +4591,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4591,7 +4611,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4611,7 +4631,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4631,7 +4651,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4651,7 +4671,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4671,7 +4691,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44742</v>
       </c>
@@ -4691,10 +4711,10 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="50"/>
       <c r="D70" s="51"/>
@@ -4706,41 +4726,41 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13"/>
       <c r="H71" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H72" s="51"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I72" s="52"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="67"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4756,7 +4776,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4772,8 +4792,8 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="48"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4788,8 +4808,8 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="48"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4804,7 +4824,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4820,7 +4840,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4836,7 +4856,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4852,7 +4872,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4868,7 +4888,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4884,7 +4904,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4900,7 +4920,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4916,7 +4936,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4932,7 +4952,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4948,7 +4968,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4964,7 +4984,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4980,7 +5000,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4996,7 +5016,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5012,7 +5032,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5028,756 +5048,36 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="39"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="39"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="39"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="39"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="39"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="39"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="39"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="39"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="39"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="39"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="39"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="39"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="39"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="39"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="39"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="39"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="39"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="39"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="39"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="39"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
 EMPLOYEE'S LEAVE CARD</oddHeader>
     <oddFooter>&amp;L
-PREPARED BY: ___________________
+PREPARED BY: &amp;UJUEL D. COPER&amp;U
 DATE: &amp;D, &amp;T&amp;C
 CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
                                             OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -5789,80 +5089,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="4425" topLeftCell="A4" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
-        <v>VIDA, FRANZ</v>
+        <v>VIDA, FRANZ R.</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
-        <v/>
+        <v>CASUAL EMPLOYEE</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="58">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>43054</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5874,19 +5174,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="59" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="55"/>
+        <v>SP/VMO</v>
+      </c>
+      <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="59"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5894,7 +5194,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5907,24 +5207,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5959,7 +5259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5983,7 +5283,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -6003,7 +5303,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -6019,7 +5319,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -6035,7 +5335,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -6051,7 +5351,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -6067,7 +5367,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -6083,7 +5383,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6099,7 +5399,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6115,7 +5415,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6131,7 +5431,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6147,7 +5447,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6163,7 +5463,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6179,7 +5479,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6195,7 +5495,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6211,7 +5511,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6227,7 +5527,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6243,7 +5543,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6259,7 +5559,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6275,7 +5575,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6291,7 +5591,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6307,7 +5607,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6323,7 +5623,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6339,7 +5639,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6355,7 +5655,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6371,7 +5671,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6387,7 +5687,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6403,7 +5703,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6419,7 +5719,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6435,7 +5735,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6451,7 +5751,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6467,7 +5767,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6483,7 +5783,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6499,7 +5799,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6515,7 +5815,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6531,7 +5831,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6547,7 +5847,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6563,7 +5863,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6579,7 +5879,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6595,7 +5895,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6611,7 +5911,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6627,7 +5927,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6643,7 +5943,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6659,7 +5959,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6675,7 +5975,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6691,7 +5991,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6707,7 +6007,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6723,7 +6023,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6739,7 +6039,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6755,7 +6055,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6771,7 +6071,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6787,7 +6087,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6803,7 +6103,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6819,7 +6119,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6835,7 +6135,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6851,7 +6151,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6867,7 +6167,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6883,7 +6183,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6899,7 +6199,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6915,7 +6215,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6931,7 +6231,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6947,7 +6247,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6963,7 +6263,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6979,7 +6279,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6995,7 +6295,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7011,7 +6311,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7027,7 +6327,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7043,7 +6343,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7059,7 +6359,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7075,7 +6375,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7091,7 +6391,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7107,7 +6407,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7123,7 +6423,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7139,7 +6439,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7155,7 +6455,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7171,7 +6471,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7187,7 +6487,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7203,7 +6503,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7219,7 +6519,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7235,7 +6535,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7251,7 +6551,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7267,7 +6567,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7283,7 +6583,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7299,7 +6599,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7315,7 +6615,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7331,7 +6631,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7347,7 +6647,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7363,7 +6663,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7379,7 +6679,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7395,7 +6695,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7411,7 +6711,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7427,7 +6727,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7443,7 +6743,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7459,7 +6759,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7475,7 +6775,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7491,7 +6791,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7507,7 +6807,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7523,7 +6823,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7539,7 +6839,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7555,7 +6855,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7571,7 +6871,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7587,7 +6887,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7603,7 +6903,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7619,7 +6919,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7635,7 +6935,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7651,7 +6951,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7667,7 +6967,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7683,7 +6983,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7699,7 +6999,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7715,7 +7015,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7731,7 +7031,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7747,7 +7047,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7763,7 +7063,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7779,7 +7079,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7795,7 +7095,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7811,7 +7111,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7827,7 +7127,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7843,7 +7143,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7859,7 +7159,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7875,7 +7175,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7891,7 +7191,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7907,7 +7207,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7938,10 +7238,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7964,29 +7264,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -7999,7 +7299,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8028,7 +7328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.875</v>
       </c>
@@ -8052,17 +7352,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8083,7 +7383,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8110,7 +7410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8136,7 +7436,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8162,7 +7462,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8188,7 +7488,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8214,7 +7514,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8240,7 +7540,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8266,7 +7566,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8292,7 +7592,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8312,7 +7612,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8332,7 +7632,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8352,7 +7652,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8373,7 +7673,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8394,7 +7694,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8415,7 +7715,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8436,7 +7736,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8457,7 +7757,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8478,7 +7778,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8499,7 +7799,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8520,7 +7820,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8541,7 +7841,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8562,7 +7862,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8583,7 +7883,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8604,7 +7904,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8625,7 +7925,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8646,7 +7946,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8667,7 +7967,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8688,7 +7988,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8709,7 +8009,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8730,7 +8030,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8751,7 +8051,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8772,7 +8072,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8781,7 +8081,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8790,7 +8090,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8799,7 +8099,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8808,7 +8108,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8817,7 +8117,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8826,7 +8126,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8835,7 +8135,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8844,7 +8144,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8853,7 +8153,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8862,7 +8162,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8871,7 +8171,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8880,7 +8180,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8889,7 +8189,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8898,7 +8198,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8907,7 +8207,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8916,7 +8216,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8925,7 +8225,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8934,7 +8234,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8943,7 +8243,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8952,7 +8252,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8961,7 +8261,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8970,7 +8270,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8979,7 +8279,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8988,7 +8288,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8997,7 +8297,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9006,7 +8306,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9015,7 +8315,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9024,7 +8324,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9033,7 +8333,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/RETIRED/VIDA, FRANZ.xlsx
+++ b/RETIRED/VIDA, FRANZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -634,8 +634,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -649,32 +664,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1408,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1532,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1661,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1759,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1818,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1926,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2001,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2187,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2253,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2311,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2377,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2433,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2551,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2617,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2771,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2834,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,10 +3310,10 @@
   </sheetPr>
   <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A28" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2205" topLeftCell="A5" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,68 +3335,68 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="55"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="63">
         <v>43054</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="62"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3422,18 +3422,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4757,8 +4757,8 @@
       </c>
       <c r="H72" s="51"/>
       <c r="I72" s="52"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="67"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="55"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
@@ -5050,17 +5050,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5098,7 +5098,7 @@
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5120,71 +5120,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>VIDA, FRANZ R.</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v>CASUAL EMPLOYEE</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="63">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>43054</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="str">
+      <c r="B4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59" t="str">
+      <c r="F4" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>SP/VMO</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="62"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5210,18 +5210,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7287,17 +7287,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -7376,12 +7376,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
